--- a/Rules for IDPM Cluster 1.xlsx
+++ b/Rules for IDPM Cluster 1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="162">
   <si>
     <t>Then</t>
   </si>
@@ -71,9 +71,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>CPI 2</t>
-  </si>
-  <si>
     <t>&lt;60</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>CPD 1</t>
   </si>
   <si>
-    <t>CPD 2</t>
-  </si>
-  <si>
     <t>&gt;120</t>
   </si>
   <si>
@@ -101,18 +95,6 @@
     <t>CPI-1 Lane-4</t>
   </si>
   <si>
-    <t>CPI-2 Lane-1</t>
-  </si>
-  <si>
-    <t>CPI-2 Lane-2</t>
-  </si>
-  <si>
-    <t>CPI-2 Lane-3</t>
-  </si>
-  <si>
-    <t>CPI-2 Lane-4</t>
-  </si>
-  <si>
     <t>CPD-1 Lane-1</t>
   </si>
   <si>
@@ -125,18 +107,6 @@
     <t>CPD-1 Lane-4</t>
   </si>
   <si>
-    <t>CPD-2 Lane-1</t>
-  </si>
-  <si>
-    <t>CPD-2 Lane-2</t>
-  </si>
-  <si>
-    <t>CPD-2 Lane-3</t>
-  </si>
-  <si>
-    <t>CPD-2 Lane-4</t>
-  </si>
-  <si>
     <t>5-35</t>
   </si>
   <si>
@@ -510,6 +480,48 @@
   </si>
   <si>
     <t>45-140</t>
+  </si>
+  <si>
+    <t>CPD 2+</t>
+  </si>
+  <si>
+    <t>CPI 2+</t>
+  </si>
+  <si>
+    <t>CPI-2+ Lane-1</t>
+  </si>
+  <si>
+    <t>CPI-2+ Lane-2</t>
+  </si>
+  <si>
+    <t>CPI-2+ Lane-3</t>
+  </si>
+  <si>
+    <t>CPI-2+ Lane-4</t>
+  </si>
+  <si>
+    <t>CPI-2++ Lane-1</t>
+  </si>
+  <si>
+    <t>CPI-2++ Lane-2</t>
+  </si>
+  <si>
+    <t>CPI-2++ Lane-3</t>
+  </si>
+  <si>
+    <t>CPI-2++ Lane-4</t>
+  </si>
+  <si>
+    <t>CPD-2+ Lane-1</t>
+  </si>
+  <si>
+    <t>CPD-2+ Lane-2</t>
+  </si>
+  <si>
+    <t>CPD-2+ Lane-3</t>
+  </si>
+  <si>
+    <t>CPD-2+ Lane-4</t>
   </si>
 </sst>
 </file>
@@ -904,30 +916,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -935,12 +929,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,26 +937,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -995,6 +965,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,7 +1044,7 @@
         <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{118BE718-37D2-0542-9523-BE7FB93F32AC}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" id="{118BE718-37D2-0542-9523-BE7FB93F32AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7958,15 +7970,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="11"/>
     <col min="3" max="3" width="107.5703125" style="11" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="11"/>
+    <col min="4" max="5" width="9.140625" style="11"/>
+    <col min="6" max="6" width="13.5703125" style="11" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="11"/>
     <col min="9" max="9" width="14.140625" style="11" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
@@ -7990,25 +8004,25 @@
       <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1">
         <v>0.6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
@@ -8020,16 +8034,16 @@
       <c r="T2"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H3"/>
@@ -8038,10 +8052,10 @@
         <v>0.7</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
@@ -8053,12 +8067,12 @@
       <c r="T3"/>
     </row>
     <row r="4" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B4" s="20"/>
-      <c r="C4" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H4"/>
@@ -8067,10 +8081,10 @@
         <v>0.8</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -8082,26 +8096,26 @@
       <c r="T4"/>
     </row>
     <row r="5" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B5" s="20"/>
-      <c r="C5" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1">
         <v>0.6</v>
       </c>
-      <c r="K5" s="49" t="s">
-        <v>129</v>
+      <c r="K5" s="35" t="s">
+        <v>119</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -8113,12 +8127,12 @@
       <c r="T5"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="20"/>
-      <c r="C6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="23" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H6"/>
@@ -8127,10 +8141,10 @@
         <v>0.7</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -8142,12 +8156,12 @@
       <c r="T6"/>
     </row>
     <row r="7" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="23" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H7"/>
@@ -8156,10 +8170,10 @@
         <v>0.8</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -8171,26 +8185,29 @@
       <c r="T7"/>
     </row>
     <row r="8" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="17" t="s">
         <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1">
         <v>0.6</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -8202,17 +8219,17 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>13</v>
+      <c r="E9" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -8220,10 +8237,10 @@
         <v>0.7</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
@@ -8235,13 +8252,16 @@
       <c r="T9"/>
     </row>
     <row r="10" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22" t="s">
-        <v>12</v>
+      <c r="B10" s="46"/>
+      <c r="C10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
       </c>
       <c r="H10"/>
       <c r="I10" s="5"/>
@@ -8249,10 +8269,10 @@
         <v>0.8</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -8264,26 +8284,29 @@
       <c r="T10"/>
     </row>
     <row r="11" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="16" t="s">
         <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1">
         <v>0.7</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -8295,17 +8318,20 @@
       <c r="T11"/>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>16</v>
+      <c r="E12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -8313,10 +8339,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -8328,20 +8354,23 @@
       <c r="T12"/>
     </row>
     <row r="13" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="24" t="s">
         <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
       </c>
       <c r="H13"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -8384,13 +8413,13 @@
     </row>
     <row r="16" spans="2:20">
       <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H16"/>
@@ -8408,16 +8437,16 @@
       <c r="T16"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H17"/>
@@ -8435,12 +8464,12 @@
       <c r="T17"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B18" s="20"/>
-      <c r="C18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="23" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H18"/>
@@ -8458,26 +8487,26 @@
       <c r="T18"/>
     </row>
     <row r="19" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B19" s="20"/>
-      <c r="C19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="23" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="J19" s="1">
         <v>0.6</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M19"/>
       <c r="N19"/>
@@ -8489,12 +8518,12 @@
       <c r="T19"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="20"/>
-      <c r="C20" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="23" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H20"/>
@@ -8503,10 +8532,10 @@
         <v>0.7</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M20"/>
       <c r="N20"/>
@@ -8518,12 +8547,12 @@
       <c r="T20"/>
     </row>
     <row r="21" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B21" s="20"/>
-      <c r="C21" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="23" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H21"/>
@@ -8532,10 +8561,10 @@
         <v>0.8</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -8547,26 +8576,26 @@
       <c r="T21"/>
     </row>
     <row r="22" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B22" s="20"/>
-      <c r="C22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="23" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="J22" s="1">
         <v>0.6</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M22"/>
       <c r="N22"/>
@@ -8578,12 +8607,12 @@
       <c r="T22"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="35"/>
-      <c r="C23" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="23" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H23"/>
@@ -8592,10 +8621,10 @@
         <v>0.7</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M23"/>
       <c r="N23"/>
@@ -8607,13 +8636,16 @@
       <c r="T23"/>
     </row>
     <row r="24" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="22" t="s">
+      <c r="D24" s="45"/>
+      <c r="E24" s="16" t="s">
         <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
       </c>
       <c r="H24"/>
       <c r="I24" s="5"/>
@@ -8621,10 +8653,10 @@
         <v>0.8</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -8636,30 +8668,30 @@
       <c r="T24"/>
     </row>
     <row r="25" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>13</v>
+      <c r="E25" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J25" s="1">
         <v>0.6</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="M25"/>
       <c r="N25"/>
@@ -8671,13 +8703,13 @@
       <c r="T25"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="20"/>
-      <c r="C26" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="23" t="s">
-        <v>13</v>
+      <c r="B26" s="46"/>
+      <c r="C26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
@@ -8685,10 +8717,10 @@
         <v>0.7</v>
       </c>
       <c r="K26" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M26"/>
       <c r="N26"/>
@@ -8700,13 +8732,13 @@
       <c r="T26"/>
     </row>
     <row r="27" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B27" s="20"/>
-      <c r="C27" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="23" t="s">
-        <v>13</v>
+      <c r="B27" s="46"/>
+      <c r="C27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="H27"/>
       <c r="I27" s="5"/>
@@ -8714,10 +8746,10 @@
         <v>0.8</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -8729,26 +8761,26 @@
       <c r="T27"/>
     </row>
     <row r="28" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B28" s="20"/>
-      <c r="C28" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="23" t="s">
-        <v>13</v>
+      <c r="B28" s="46"/>
+      <c r="C28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="J28" s="1">
         <v>0.7</v>
       </c>
       <c r="K28" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M28"/>
       <c r="N28"/>
@@ -8760,13 +8792,13 @@
       <c r="T28"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="20"/>
-      <c r="C29" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="23" t="s">
-        <v>13</v>
+      <c r="B29" s="46"/>
+      <c r="C29" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
@@ -8774,10 +8806,10 @@
         <v>0.8</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M29"/>
       <c r="N29"/>
@@ -8789,20 +8821,20 @@
       <c r="T29"/>
     </row>
     <row r="30" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B30" s="35"/>
-      <c r="C30" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="23" t="s">
-        <v>13</v>
+      <c r="B30" s="41"/>
+      <c r="C30" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="H30"/>
       <c r="I30" s="5"/>
       <c r="J30" s="6"/>
       <c r="K30" s="5"/>
       <c r="L30" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -8814,13 +8846,16 @@
       <c r="T30"/>
     </row>
     <row r="31" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="22" t="s">
-        <v>12</v>
+      <c r="D31" s="45"/>
+      <c r="E31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>151</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -8837,17 +8872,20 @@
       <c r="T31"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>16</v>
+      <c r="E32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>153</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
@@ -8864,13 +8902,16 @@
       <c r="T32"/>
     </row>
     <row r="33" spans="2:20">
-      <c r="B33" s="20"/>
-      <c r="C33" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22" t="s">
-        <v>16</v>
+      <c r="B33" s="46"/>
+      <c r="C33" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>153</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
@@ -8887,13 +8928,16 @@
       <c r="T33"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="35"/>
-      <c r="C34" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="22" t="s">
-        <v>16</v>
+      <c r="B34" s="41"/>
+      <c r="C34" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="E34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>153</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
@@ -8910,13 +8954,16 @@
       <c r="T34"/>
     </row>
     <row r="35" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B35" s="31"/>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34" t="s">
+      <c r="D35" s="37"/>
+      <c r="E35" s="24" t="s">
         <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>152</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
@@ -8965,13 +9012,13 @@
     <row r="39" spans="2:20" ht="16.5" thickBot="1"/>
     <row r="40" spans="2:20" ht="16.5" thickBot="1">
       <c r="B40" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15" t="s">
+      <c r="D40" s="39"/>
+      <c r="E40" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H40"/>
@@ -8989,30 +9036,30 @@
       <c r="T40"/>
     </row>
     <row r="41" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="38" t="s">
+      <c r="C41" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J41" s="1">
         <v>0.6</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M41"/>
       <c r="N41"/>
@@ -9024,12 +9071,12 @@
       <c r="T41"/>
     </row>
     <row r="42" spans="2:20">
-      <c r="B42" s="37"/>
-      <c r="C42" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="23" t="s">
+      <c r="B42" s="48"/>
+      <c r="C42" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H42"/>
@@ -9038,10 +9085,10 @@
         <v>0.7</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M42"/>
       <c r="N42"/>
@@ -9053,12 +9100,12 @@
       <c r="T42"/>
     </row>
     <row r="43" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B43" s="37"/>
-      <c r="C43" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="23" t="s">
+      <c r="B43" s="48"/>
+      <c r="C43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H43"/>
@@ -9067,10 +9114,10 @@
         <v>0.8</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -9082,26 +9129,26 @@
       <c r="T43"/>
     </row>
     <row r="44" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B44" s="37"/>
-      <c r="C44" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="23" t="s">
+      <c r="B44" s="48"/>
+      <c r="C44" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J44" s="1">
         <v>0.6</v>
       </c>
       <c r="K44" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M44"/>
       <c r="N44"/>
@@ -9113,12 +9160,12 @@
       <c r="T44"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="37"/>
-      <c r="C45" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="23" t="s">
+      <c r="B45" s="48"/>
+      <c r="C45" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="49"/>
+      <c r="E45" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H45"/>
@@ -9127,10 +9174,10 @@
         <v>0.7</v>
       </c>
       <c r="K45" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M45"/>
       <c r="N45"/>
@@ -9142,12 +9189,12 @@
       <c r="T45"/>
     </row>
     <row r="46" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B46" s="37"/>
-      <c r="C46" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="23" t="s">
+      <c r="B46" s="48"/>
+      <c r="C46" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H46"/>
@@ -9156,10 +9203,10 @@
         <v>0.8</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -9171,26 +9218,29 @@
       <c r="T46"/>
     </row>
     <row r="47" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B47" s="37"/>
-      <c r="C47" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="23" t="s">
+      <c r="B47" s="48"/>
+      <c r="C47" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="49"/>
+      <c r="E47" s="17" t="s">
         <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
       </c>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J47" s="1">
         <v>0.6</v>
       </c>
       <c r="K47" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M47"/>
       <c r="N47"/>
@@ -9202,13 +9252,16 @@
       <c r="T47"/>
     </row>
     <row r="48" spans="2:20">
-      <c r="B48" s="25"/>
-      <c r="C48" s="26" t="s">
+      <c r="B48" s="19"/>
+      <c r="C48" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="22" t="s">
+      <c r="D48" s="45"/>
+      <c r="E48" s="16" t="s">
         <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
@@ -9216,10 +9269,10 @@
         <v>0.7</v>
       </c>
       <c r="K48" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M48"/>
       <c r="N48"/>
@@ -9231,17 +9284,17 @@
       <c r="T48"/>
     </row>
     <row r="49" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="38" t="s">
+      <c r="C49" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="23" t="s">
-        <v>13</v>
+      <c r="E49" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="H49"/>
       <c r="I49" s="5"/>
@@ -9249,10 +9302,10 @@
         <v>0.8</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -9264,26 +9317,26 @@
       <c r="T49"/>
     </row>
     <row r="50" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B50" s="37"/>
-      <c r="C50" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="23" t="s">
-        <v>13</v>
+      <c r="B50" s="48"/>
+      <c r="C50" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="49"/>
+      <c r="E50" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J50" s="1">
         <v>0.7</v>
       </c>
       <c r="K50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M50"/>
       <c r="N50"/>
@@ -9295,13 +9348,16 @@
       <c r="T50"/>
     </row>
     <row r="51" spans="2:20">
-      <c r="B51" s="37"/>
-      <c r="C51" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="23" t="s">
-        <v>12</v>
+      <c r="B51" s="48"/>
+      <c r="C51" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="49"/>
+      <c r="E51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
@@ -9309,10 +9365,10 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M51"/>
       <c r="N51"/>
@@ -9324,20 +9380,23 @@
       <c r="T51"/>
     </row>
     <row r="52" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B52" s="25"/>
-      <c r="C52" s="26" t="s">
+      <c r="B52" s="19"/>
+      <c r="C52" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="39" t="s">
+      <c r="D52" s="45"/>
+      <c r="E52" s="25" t="s">
         <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
       </c>
       <c r="H52"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6"/>
       <c r="K52" s="5"/>
       <c r="L52" s="8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
@@ -9349,17 +9408,20 @@
       <c r="T52"/>
     </row>
     <row r="53" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="44" t="s">
+      <c r="C53" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="39" t="s">
-        <v>16</v>
+      <c r="E53" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
@@ -9376,13 +9438,16 @@
       <c r="T53"/>
     </row>
     <row r="54" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B54" s="31"/>
-      <c r="C54" s="32" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="40" t="s">
+      <c r="D54" s="37"/>
+      <c r="E54" s="26" t="s">
         <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
@@ -9430,13 +9495,13 @@
     </row>
     <row r="57" spans="2:20">
       <c r="B57" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15" t="s">
+      <c r="D57" s="39"/>
+      <c r="E57" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H57"/>
@@ -9454,16 +9519,16 @@
       <c r="T57"/>
     </row>
     <row r="58" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="18" t="s">
+      <c r="C58" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H58"/>
@@ -9481,26 +9546,26 @@
       <c r="T58"/>
     </row>
     <row r="59" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B59" s="20"/>
-      <c r="C59" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="23" t="s">
+      <c r="B59" s="46"/>
+      <c r="C59" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="47"/>
+      <c r="E59" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H59"/>
       <c r="I59" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="J59" s="1">
         <v>0.6</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M59"/>
       <c r="N59"/>
@@ -9512,12 +9577,12 @@
       <c r="T59"/>
     </row>
     <row r="60" spans="2:20">
-      <c r="B60" s="20"/>
-      <c r="C60" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="23" t="s">
+      <c r="B60" s="46"/>
+      <c r="C60" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="47"/>
+      <c r="E60" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H60"/>
@@ -9526,10 +9591,10 @@
         <v>0.7</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M60"/>
       <c r="N60"/>
@@ -9541,12 +9606,12 @@
       <c r="T60"/>
     </row>
     <row r="61" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B61" s="20"/>
-      <c r="C61" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="23" t="s">
+      <c r="B61" s="46"/>
+      <c r="C61" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="47"/>
+      <c r="E61" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H61"/>
@@ -9555,10 +9620,10 @@
         <v>0.8</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -9570,26 +9635,26 @@
       <c r="T61"/>
     </row>
     <row r="62" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B62" s="20"/>
-      <c r="C62" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="23" t="s">
+      <c r="B62" s="46"/>
+      <c r="C62" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="47"/>
+      <c r="E62" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="J62" s="1">
         <v>0.6</v>
       </c>
       <c r="K62" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M62"/>
       <c r="N62"/>
@@ -9601,12 +9666,12 @@
       <c r="T62"/>
     </row>
     <row r="63" spans="2:20">
-      <c r="B63" s="20"/>
-      <c r="C63" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="23" t="s">
+      <c r="B63" s="46"/>
+      <c r="C63" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="47"/>
+      <c r="E63" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H63"/>
@@ -9615,10 +9680,10 @@
         <v>0.7</v>
       </c>
       <c r="K63" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M63"/>
       <c r="N63"/>
@@ -9630,12 +9695,12 @@
       <c r="T63"/>
     </row>
     <row r="64" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B64" s="20"/>
-      <c r="C64" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="23" t="s">
+      <c r="B64" s="46"/>
+      <c r="C64" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="47"/>
+      <c r="E64" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H64"/>
@@ -9644,10 +9709,10 @@
         <v>0.8</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -9659,26 +9724,29 @@
       <c r="T64"/>
     </row>
     <row r="65" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B65" s="25"/>
-      <c r="C65" s="26" t="s">
+      <c r="B65" s="19"/>
+      <c r="C65" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="22" t="s">
+      <c r="D65" s="45"/>
+      <c r="E65" s="16" t="s">
         <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>158</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="J65" s="1">
         <v>0.6</v>
       </c>
       <c r="K65" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="M65"/>
       <c r="N65"/>
@@ -9690,17 +9758,17 @@
       <c r="T65"/>
     </row>
     <row r="66" spans="2:20">
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="18" t="s">
+      <c r="C66" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="47" t="s">
-        <v>13</v>
+      <c r="E66" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
@@ -9708,10 +9776,10 @@
         <v>0.7</v>
       </c>
       <c r="K66" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M66"/>
       <c r="N66"/>
@@ -9723,13 +9791,13 @@
       <c r="T66"/>
     </row>
     <row r="67" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B67" s="20"/>
-      <c r="C67" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="47" t="s">
-        <v>13</v>
+      <c r="B67" s="46"/>
+      <c r="C67" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="47"/>
+      <c r="E67" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="H67"/>
       <c r="I67" s="5"/>
@@ -9737,10 +9805,10 @@
         <v>0.8</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -9752,26 +9820,26 @@
       <c r="T67"/>
     </row>
     <row r="68" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B68" s="20"/>
-      <c r="C68" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="47" t="s">
-        <v>13</v>
+      <c r="B68" s="46"/>
+      <c r="C68" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="47"/>
+      <c r="E68" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="H68"/>
       <c r="I68" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="J68" s="1">
         <v>0.7</v>
       </c>
       <c r="K68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="M68"/>
       <c r="N68"/>
@@ -9783,13 +9851,13 @@
       <c r="T68"/>
     </row>
     <row r="69" spans="2:20">
-      <c r="B69" s="20"/>
-      <c r="C69" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="47" t="s">
-        <v>13</v>
+      <c r="B69" s="46"/>
+      <c r="C69" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="47"/>
+      <c r="E69" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
@@ -9797,10 +9865,10 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M69"/>
       <c r="N69"/>
@@ -9812,20 +9880,23 @@
       <c r="T69"/>
     </row>
     <row r="70" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B70" s="25"/>
-      <c r="C70" s="26" t="s">
+      <c r="B70" s="19"/>
+      <c r="C70" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="22" t="s">
+      <c r="D70" s="45"/>
+      <c r="E70" s="16" t="s">
         <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>159</v>
       </c>
       <c r="H70"/>
       <c r="I70" s="5"/>
       <c r="J70" s="6"/>
       <c r="K70" s="5"/>
       <c r="L70" s="8" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -9837,17 +9908,20 @@
       <c r="T70"/>
     </row>
     <row r="71" spans="2:20" ht="16.5" thickTop="1">
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="18" t="s">
+      <c r="C71" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E71" s="47" t="s">
-        <v>16</v>
+      <c r="E71" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>161</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
@@ -9864,33 +9938,42 @@
       <c r="T71"/>
     </row>
     <row r="72" spans="2:20">
-      <c r="B72" s="20"/>
-      <c r="C72" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="23" t="s">
-        <v>16</v>
+      <c r="B72" s="46"/>
+      <c r="C72" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="47"/>
+      <c r="E72" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="2:20">
-      <c r="B73" s="35"/>
-      <c r="C73" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="23" t="s">
-        <v>16</v>
+      <c r="B73" s="41"/>
+      <c r="C73" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="43"/>
+      <c r="E73" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B74" s="31"/>
-      <c r="C74" s="32" t="s">
+      <c r="B74" s="23"/>
+      <c r="C74" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="34" t="s">
+      <c r="D74" s="37"/>
+      <c r="E74" s="24" t="s">
         <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="2:20" ht="16.5" thickBot="1">
@@ -9910,27 +9993,27 @@
     </row>
     <row r="77" spans="2:20" ht="16.5" thickTop="1">
       <c r="B77" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="14"/>
-      <c r="E77" s="41" t="s">
+      <c r="D77" s="39"/>
+      <c r="E77" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H77"/>
       <c r="I77" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J77" s="1">
         <v>0.6</v>
       </c>
       <c r="K77" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="M77"/>
       <c r="N77"/>
@@ -9942,17 +10025,20 @@
       <c r="T77"/>
     </row>
     <row r="78" spans="2:20">
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="48" t="s">
-        <v>123</v>
+      <c r="E78" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" t="s">
+        <v>30</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
@@ -9960,10 +10046,10 @@
         <v>0.7</v>
       </c>
       <c r="K78" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M78"/>
       <c r="N78"/>
@@ -9975,13 +10061,16 @@
       <c r="T78"/>
     </row>
     <row r="79" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B79" s="35"/>
+      <c r="B79" s="41"/>
       <c r="C79" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="42" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="D79" s="43"/>
+      <c r="E79" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F79" t="s">
+        <v>30</v>
       </c>
       <c r="H79"/>
       <c r="I79" s="5"/>
@@ -9989,10 +10078,10 @@
         <v>0.8</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -10004,26 +10093,29 @@
       <c r="T79"/>
     </row>
     <row r="80" spans="2:20" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B80" s="31"/>
-      <c r="C80" s="32" t="s">
+      <c r="B80" s="23"/>
+      <c r="C80" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="33"/>
-      <c r="E80" s="43" t="s">
-        <v>124</v>
+      <c r="D80" s="37"/>
+      <c r="E80" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80" t="s">
+        <v>29</v>
       </c>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M80"/>
       <c r="N80"/>
@@ -10040,7 +10132,7 @@
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M81"/>
       <c r="N81"/>
@@ -10057,7 +10149,7 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -10085,27 +10177,17 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="D17:D23"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="D49:D51"/>
     <mergeCell ref="C24:D24"/>
@@ -10114,17 +10196,27 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="D78:D79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
